--- a/kvp-win32/bin/templates/tenant-list.xlsx
+++ b/kvp-win32/bin/templates/tenant-list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>№ комнат</t>
   </si>
@@ -29,16 +29,6 @@
   </si>
   <si>
     <t>Общая площадь</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович
-Петров Петр Петрович
-Сидоров Сидр Сидорович</t>
-  </si>
-  <si>
-    <t>01.01.2001
-02.02.2002
-03.03.2003</t>
   </si>
   <si>
     <t>Общежитие ТОГБОУ СПО "Многоотраслевой техникум"
@@ -97,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -110,10 +100,43 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -125,10 +148,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -137,61 +158,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -201,10 +170,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -216,10 +185,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -229,10 +198,10 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -242,7 +211,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -255,7 +224,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -266,7 +235,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -281,66 +250,66 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +615,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,62 +626,52 @@
     <col min="4" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>100</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43.5</v>
-      </c>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -720,6 +679,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>